--- a/console-xls-parser/src/test/resources/test-data.xlsx
+++ b/console-xls-parser/src/test/resources/test-data.xlsx
@@ -8,44 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\ZRmn\hutka-app-be\console-xls-parser\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D018FDD7-A7B2-4E5C-A08B-C51919D75D2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D739614A-ADC5-4030-BFCC-FE71FA592CCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="3240" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Routes" sheetId="1" r:id="rId1"/>
-    <sheet name="Points" sheetId="2" r:id="rId2"/>
+    <sheet name="Places" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
-  <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>Длина</t>
-  </si>
-  <si>
-    <t>Время</t>
-  </si>
-  <si>
-    <t>Фото маршрута</t>
-  </si>
-  <si>
-    <t>point id</t>
-  </si>
-  <si>
-    <t>100км</t>
-  </si>
-  <si>
-    <t>3h</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>url</t>
   </si>
@@ -56,66 +32,15 @@
     <t>какое никакое описание2</t>
   </si>
   <si>
-    <t>200км</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>Город/район</t>
-  </si>
-  <si>
-    <t>Достопримечательность</t>
-  </si>
-  <si>
-    <t>Фото достопримечатальности</t>
-  </si>
-  <si>
-    <t>Широта</t>
-  </si>
-  <si>
-    <t>Долгота</t>
-  </si>
-  <si>
-    <t>Теги</t>
-  </si>
-  <si>
-    <t>Минск</t>
-  </si>
-  <si>
-    <t>Стелла</t>
-  </si>
-  <si>
     <t>Архитектура</t>
   </si>
   <si>
-    <t>Кобрин</t>
-  </si>
-  <si>
-    <t>Молокозавод</t>
-  </si>
-  <si>
-    <t>Брест</t>
-  </si>
-  <si>
-    <t>Крепость</t>
-  </si>
-  <si>
-    <t>Могилевcкий район</t>
-  </si>
-  <si>
-    <t>Зоопарк</t>
-  </si>
-  <si>
     <t>Природа</t>
   </si>
   <si>
-    <t>Орша</t>
-  </si>
-  <si>
-    <t>Вокзал</t>
-  </si>
-  <si>
     <t>История,Архитектура</t>
   </si>
   <si>
@@ -135,13 +60,70 @@
   </si>
   <si>
     <t>Архитектура,еда</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>imgUrl</t>
+  </si>
+  <si>
+    <t>locationName</t>
+  </si>
+  <si>
+    <t>locationLat</t>
+  </si>
+  <si>
+    <t>locationLng</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Place name 1</t>
+  </si>
+  <si>
+    <t>Place name 2</t>
+  </si>
+  <si>
+    <t>Place name 5</t>
+  </si>
+  <si>
+    <t>Название места 3</t>
+  </si>
+  <si>
+    <t>url1</t>
+  </si>
+  <si>
+    <t>url2</t>
+  </si>
+  <si>
+    <t>url3</t>
+  </si>
+  <si>
+    <t>url4</t>
+  </si>
+  <si>
+    <t>url5</t>
+  </si>
+  <si>
+    <t>points</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -151,6 +133,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -193,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -207,6 +196,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,8 +417,8 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -437,31 +427,31 @@
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2"/>
+        <v>21</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -473,24 +463,23 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>11.22</v>
+      </c>
+      <c r="E2" s="4">
+        <v>-6.34</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2"/>
+        <v>11</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -502,24 +491,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -691,21 +675,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="33" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -714,131 +701,140 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C2" s="4">
+        <v>55.12</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-33.22</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="4">
         <v>55.12</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="4">
         <v>-33.22</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4">
         <v>55.12</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="4">
         <v>-33.22</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="7">
+        <v>28</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8">
         <v>48.15</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="8">
         <v>-16.23</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="8">
+        <v>48.15</v>
+      </c>
+      <c r="D5" s="8">
+        <v>-16.23</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-33.22</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="6" t="s">
-        <v>32</v>
+      <c r="H6" s="6"/>
+      <c r="I6" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
